--- a/serve/backend/report.xlsx
+++ b/serve/backend/report.xlsx
@@ -14,9 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Data Unavailable in the selected range</t>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Total Energy Consumption</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>EM3</t>
   </si>
 </sst>
 </file>
@@ -87,6 +96,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="header.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3377210" cy="781880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:B6"/>
+  <dimension ref="A5:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,20 +436,30 @@
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2">
-      <c r="B5" s="1">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>-192.92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>